--- a/Documentação/Tabelas_LN/znsls401-Pedido Vdas Linha.xlsx
+++ b/Documentação/Tabelas_LN/znsls401-Pedido Vdas Linha.xlsx
@@ -1785,8 +1785,8 @@
   <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50:R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
